--- a/src/test/resources/DemoWebShopDataFile.xlsx
+++ b/src/test/resources/DemoWebShopDataFile.xlsx
@@ -56,7 +56,7 @@
     <t>invalidemail</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid </t>
+    <t>Please enter a valid email address.</t>
   </si>
 </sst>
 </file>
